--- a/biology/Botanique/Nutt/Nutt..xlsx
+++ b/biology/Botanique/Nutt/Nutt..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Nuttall (5 janvier 1786 – 10 septembre 1859) est un botaniste et un zoologiste d'origine britannique qui a vécu et travaillé aux États-Unis entre 1808 et 1842.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Nuttall naît le 5 janvier 1786 dans le village de Long Preston près de Settle dans le Yorkshire.
 Il travaille tout d'abord comme imprimeur avant d'émigrer aux États-Unis où il rencontre le professeur Benjamin Smith Barton à Philadelphie. Celui-ci l'incite à étudier les plantes et Nuttall commence à collecter des spécimens pour l'université de Philadelphie. Il devient l'ami de Samuel Washington Woodhouse.
@@ -547,7 +561,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreuses espèces, tant végétales qu'animales, lui ont été dédiées comme un pic vert, le pic de Nuttall (Picoides nuttallii) par son ami William Gambel ainsi que la pie à bec jaune (Pica nuttalli) et l'engoulevent de Nuttall (Phalaenoptilus nuttallii) par John James Audubon. Son nom est actuellement porté par un chêne rouge américain du centre sud des États-Unis, Nuttall's oak (Quercus texana) ainsi que par le cornouiller du Pacifique, également appelé cornouiller de Nuttall, (Cornus nuttallii) qui est l'emblème floral de la province canadienne de Colombie-Britannique.
 Le Nuttall Ornithological Club, formé en 1873 et qui la première société ornithologique du pays, porte son nom.
@@ -579,7 +595,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>The genera of North American plants, 1818
 New genera and species of plants, 1840
